--- a/ResultadoEleicoesDistritos/BRAGA_FAFE.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_FAFE.xlsx
@@ -597,64 +597,64 @@
         <v>15009</v>
       </c>
       <c r="H2" t="n">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="I2" t="n">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="J2" t="n">
-        <v>6137</v>
+        <v>6196</v>
       </c>
       <c r="K2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
-        <v>1773</v>
+        <v>1753</v>
       </c>
       <c r="M2" t="n">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N2" t="n">
-        <v>1110</v>
+        <v>1031</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="n">
+        <v>11</v>
+      </c>
+      <c r="R2" t="n">
+        <v>88</v>
+      </c>
+      <c r="S2" t="n">
+        <v>664</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1100</v>
+      </c>
+      <c r="U2" t="n">
+        <v>89</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9553</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9568</v>
+      </c>
+      <c r="Y2" t="n">
         <v>13</v>
       </c>
-      <c r="R2" t="n">
-        <v>95</v>
-      </c>
-      <c r="S2" t="n">
-        <v>672</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1083</v>
-      </c>
-      <c r="U2" t="n">
-        <v>93</v>
-      </c>
-      <c r="V2" t="n">
-        <v>9616</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9492</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8</v>
-      </c>
       <c r="Z2" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AA2" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
